--- a/Output/PBL/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -112,15 +114,47 @@
   </si>
   <si>
     <t xml:space="preserve">FFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAST GUARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -156,10 +190,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,4 +1557,1023 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>15200</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>483844.7852</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>476477.3887</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>7881.6602</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>4182368.7109</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>7535814.1303</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>8261231.8339</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>8629917.0256</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>3543358.4001</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>576332.88</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>45866.5117</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>84461</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>704.34</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>6755.36</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>-500.22</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f>Sum(N2:N2)</f>
+      </c>
+      <c r="O3" s="3" t="str">
+        <f>Sum(O2:O2)</f>
+      </c>
+      <c r="P3" s="3" t="str">
+        <f>Sum(P2:P2)</f>
+      </c>
+      <c r="Q3" s="3" t="str">
+        <f>Sum(Q2:Q2)</f>
+      </c>
+      <c r="R3" s="3" t="str">
+        <f>Sum(R2:R2)</f>
+      </c>
+      <c r="S3" s="3" t="str">
+        <f>Sum(S2:S2)</f>
+      </c>
+      <c r="T3" s="3" t="str">
+        <f>Sum(T2:T2)</f>
+      </c>
+      <c r="U3" s="3" t="str">
+        <f>Sum(U2:U2)</f>
+      </c>
+      <c r="V3" s="3" t="str">
+        <f>Sum(V2:V2)</f>
+      </c>
+      <c r="W3" s="3" t="str">
+        <f>Sum(W2:W2)</f>
+      </c>
+      <c r="X3" s="3" t="str">
+        <f>Sum(X2:X2)</f>
+      </c>
+      <c r="Y3" s="3" t="str">
+        <f>Sum(Y2:Y2)</f>
+      </c>
+      <c r="Z3" s="3" t="str">
+        <f>Sum(Z2:Z2)</f>
+      </c>
+      <c r="AA3" s="3" t="str">
+        <f>Sum(AA2:AA2)</f>
+      </c>
+      <c r="AB3" s="3" t="str">
+        <f>Sum(AB2:AB2)</f>
+      </c>
+      <c r="AC3" s="3" t="str">
+        <f>Sum(AC2:AC2)</f>
+      </c>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>21520.1113482275</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>671093.431490281</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>654185.072604637</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>10728.303526554</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>5580911.11572223</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>9876495.93341436</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>10634277.8616398</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>10909838.145559</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>4433556.37446725</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>715405.274473154</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>55989.2508429455</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>100862.397441615</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>736.561156524121</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>6755.36</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>-487.208612637409</v>
+      </c>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="n">
+        <v>774769.7852</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>463766.4688</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="n">
+        <v>4102771.75</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4408273.2827</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3532136.72</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>281731.54</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="n">
+        <v>84461</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="n">
+        <v>-290925</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="n">
+        <v>3100395.5781</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4173089.6739</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>5399144.5156</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3507709.18</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>511012.88</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>-55390.8398</v>
+      </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4" t="n">
+        <v>19040</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>15200</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="n">
+        <v>79596.9609</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
+        <v>536995.72</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2949040.97</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>32104.0801</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="n">
+        <v>500.22</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>-500.22</v>
+      </c>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="n">
+        <v>12710.9199</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>7881.6602</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="n">
+        <v>27145.2695</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
+        <v>3545.14</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>65320</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>101257.3515</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4" t="n">
+        <v>704.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6255.14</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4" t="n">
+        <v>-30.28</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f>Sum(O2:O7)</f>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f>Sum(P2:P7)</f>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f>Sum(Q2:Q7)</f>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f>Sum(R2:R7)</f>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f>Sum(S2:S7)</f>
+      </c>
+      <c r="T8" s="4" t="str">
+        <f>Sum(T2:T7)</f>
+      </c>
+      <c r="U8" s="4" t="str">
+        <f>Sum(U2:U7)</f>
+      </c>
+      <c r="V8" s="4" t="str">
+        <f>Sum(V2:V7)</f>
+      </c>
+      <c r="W8" s="4" t="str">
+        <f>Sum(W2:W7)</f>
+      </c>
+      <c r="X8" s="4" t="str">
+        <f>Sum(X2:X7)</f>
+      </c>
+      <c r="Y8" s="4" t="str">
+        <f>Sum(Y2:Y7)</f>
+      </c>
+      <c r="Z8" s="4" t="str">
+        <f>Sum(Z2:Z7)</f>
+      </c>
+      <c r="AA8" s="4" t="str">
+        <f>Sum(AA2:AA7)</f>
+      </c>
+      <c r="AB8" s="4" t="str">
+        <f>Sum(AB2:AB7)</f>
+      </c>
+      <c r="AC8" s="4" t="str">
+        <f>Sum(AC2:AC7)</f>
+      </c>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="n">
+        <v>1074606.8360537</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>636733.469958097</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4" t="n">
+        <v>5474697.72456262</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>5777516.85447057</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>4546746.06414583</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>356161.651703178</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4" t="n">
+        <v>100862.397441615</v>
+      </c>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="n">
+        <v>-403513.404563423</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="n">
+        <v>4063402.28004821</v>
+      </c>
+      <c r="U13" s="4" t="n">
+        <v>5371813.31138632</v>
+      </c>
+      <c r="V13" s="4" t="n">
+        <v>6825534.08276636</v>
+      </c>
+      <c r="W13" s="4" t="n">
+        <v>4388951.00036377</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>634323.187800281</v>
+      </c>
+      <c r="Y13" s="4" t="n">
+        <v>-67615.598156849</v>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4" t="n">
+        <v>24509.2565559967</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>21520.1113482275</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="n">
+        <v>106213.391159606</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="n">
+        <v>691248.207507991</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>3728142.41108945</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>40169.5885377401</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4" t="n">
+        <v>500.22</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>-487.208612637409</v>
+      </c>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="n">
+        <v>17451.6026465397</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>10728.303526554</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4" t="n">
+        <v>35576.7988955844</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="n">
+        <v>4435.785565732</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>81082.0866728728</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>123604.848999794</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4" t="n">
+        <v>736.561156524121</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>6255.14</v>
+      </c>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="n">
+        <v>-38.9779563295998</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -150,11 +150,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -190,12 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1954,38 +1956,38 @@
       <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="n">
         <v>774769.7852</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="5" t="n">
         <v>463766.4688</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="n">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="n">
         <v>4102771.75</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="5" t="n">
         <v>4408273.2827</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>3532136.72</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>281731.54</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="n">
         <v>84461</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2000,36 +2002,36 @@
       <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="n">
         <v>-290925</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="n">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="n">
         <v>3100395.5781</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <v>4173089.6739</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>5399144.5156</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>3507709.18</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="5" t="n">
         <v>511012.88</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>-55390.8398</v>
       </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2044,24 +2046,24 @@
       <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="n">
         <v>19040</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2076,36 +2078,36 @@
       <c r="N5" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>15200</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4" t="n">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="n">
         <v>79596.9609</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4" t="n">
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="n">
         <v>536995.72</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="5" t="n">
         <v>2949040.97</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>32104.0801</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4" t="n">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5" t="n">
         <v>500.22</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="5" t="n">
         <v>-500.22</v>
       </c>
-      <c r="AD5" s="4"/>
+      <c r="AD5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2120,38 +2122,38 @@
       <c r="N6" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="n">
         <v>12710.9199</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="5" t="n">
         <v>7881.6602</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4" t="n">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="n">
         <v>27145.2695</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4" t="n">
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="n">
         <v>3545.14</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="X6" s="5" t="n">
         <v>65320</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="Y6" s="5" t="n">
         <v>101257.3515</v>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4" t="n">
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5" t="n">
         <v>704.34</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="5" t="n">
         <v>6255.14</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2166,24 +2168,24 @@
       <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4" t="n">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5" t="n">
         <v>-30.28</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -2198,52 +2200,52 @@
       <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="4" t="str">
+      <c r="O8" s="5" t="str">
         <f>Sum(O2:O7)</f>
       </c>
-      <c r="P8" s="4" t="str">
+      <c r="P8" s="5" t="str">
         <f>Sum(P2:P7)</f>
       </c>
-      <c r="Q8" s="4" t="str">
+      <c r="Q8" s="5" t="str">
         <f>Sum(Q2:Q7)</f>
       </c>
-      <c r="R8" s="4" t="str">
+      <c r="R8" s="5" t="str">
         <f>Sum(R2:R7)</f>
       </c>
-      <c r="S8" s="4" t="str">
+      <c r="S8" s="5" t="str">
         <f>Sum(S2:S7)</f>
       </c>
-      <c r="T8" s="4" t="str">
+      <c r="T8" s="5" t="str">
         <f>Sum(T2:T7)</f>
       </c>
-      <c r="U8" s="4" t="str">
+      <c r="U8" s="5" t="str">
         <f>Sum(U2:U7)</f>
       </c>
-      <c r="V8" s="4" t="str">
+      <c r="V8" s="5" t="str">
         <f>Sum(V2:V7)</f>
       </c>
-      <c r="W8" s="4" t="str">
+      <c r="W8" s="5" t="str">
         <f>Sum(W2:W7)</f>
       </c>
-      <c r="X8" s="4" t="str">
+      <c r="X8" s="5" t="str">
         <f>Sum(X2:X7)</f>
       </c>
-      <c r="Y8" s="4" t="str">
+      <c r="Y8" s="5" t="str">
         <f>Sum(Y2:Y7)</f>
       </c>
-      <c r="Z8" s="4" t="str">
+      <c r="Z8" s="5" t="str">
         <f>Sum(Z2:Z7)</f>
       </c>
-      <c r="AA8" s="4" t="str">
+      <c r="AA8" s="5" t="str">
         <f>Sum(AA2:AA7)</f>
       </c>
-      <c r="AB8" s="4" t="str">
+      <c r="AB8" s="5" t="str">
         <f>Sum(AB2:AB7)</f>
       </c>
-      <c r="AC8" s="4" t="str">
+      <c r="AC8" s="5" t="str">
         <f>Sum(AC2:AC7)</f>
       </c>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="5"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2317,38 +2319,38 @@
       <c r="N12" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4" t="n">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="n">
         <v>1074606.8360537</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="5" t="n">
         <v>636733.469958097</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4" t="n">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5" t="n">
         <v>5474697.72456262</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <v>5777516.85447057</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <v>4546746.06414583</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="5" t="n">
         <v>356161.651703178</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4" t="n">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5" t="n">
         <v>100862.397441615</v>
       </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2363,36 +2365,36 @@
       <c r="N13" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4" t="n">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="n">
         <v>-403513.404563423</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4" t="n">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5" t="n">
         <v>4063402.28004821</v>
       </c>
-      <c r="U13" s="4" t="n">
+      <c r="U13" s="5" t="n">
         <v>5371813.31138632</v>
       </c>
-      <c r="V13" s="4" t="n">
+      <c r="V13" s="5" t="n">
         <v>6825534.08276636</v>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="W13" s="5" t="n">
         <v>4388951.00036377</v>
       </c>
-      <c r="X13" s="4" t="n">
+      <c r="X13" s="5" t="n">
         <v>634323.187800281</v>
       </c>
-      <c r="Y13" s="4" t="n">
+      <c r="Y13" s="5" t="n">
         <v>-67615.598156849</v>
       </c>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2407,24 +2409,24 @@
       <c r="N14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4" t="n">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5" t="n">
         <v>24509.2565559967</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -2439,36 +2441,36 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="5" t="n">
         <v>21520.1113482275</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4" t="n">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5" t="n">
         <v>106213.391159606</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4" t="n">
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="n">
         <v>691248.207507991</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="5" t="n">
         <v>3728142.41108945</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="5" t="n">
         <v>40169.5885377401</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4" t="n">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5" t="n">
         <v>500.22</v>
       </c>
-      <c r="AC15" s="4" t="n">
+      <c r="AC15" s="5" t="n">
         <v>-487.208612637409</v>
       </c>
-      <c r="AD15" s="4"/>
+      <c r="AD15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -2483,38 +2485,38 @@
       <c r="N16" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4" t="n">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5" t="n">
         <v>17451.6026465397</v>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="5" t="n">
         <v>10728.303526554</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4" t="n">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5" t="n">
         <v>35576.7988955844</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4" t="n">
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5" t="n">
         <v>4435.785565732</v>
       </c>
-      <c r="X16" s="4" t="n">
+      <c r="X16" s="5" t="n">
         <v>81082.0866728728</v>
       </c>
-      <c r="Y16" s="4" t="n">
+      <c r="Y16" s="5" t="n">
         <v>123604.848999794</v>
       </c>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4" t="n">
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5" t="n">
         <v>736.561156524121</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="5" t="n">
         <v>6255.14</v>
       </c>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -2529,24 +2531,24 @@
       <c r="N17" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="n">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5" t="n">
         <v>-38.9779563295998</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -2555,22 +2557,22 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_Products/DoD_Other_Products_Contracts.xlsx
@@ -151,11 +151,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -193,11 +193,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
